--- a/Notebooks/Tables/fw_cost_mat.xlsx
+++ b/Notebooks/Tables/fw_cost_mat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Feature weight</t>
   </si>
@@ -25,7 +25,22 @@
     <t>Trip Miles</t>
   </si>
   <si>
+    <t>STA_False</t>
+  </si>
+  <si>
+    <t>17 Hrs</t>
+  </si>
+  <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>8 Hrs</t>
+  </si>
+  <si>
+    <t>16 Hrs</t>
+  </si>
+  <si>
+    <t>STA_True</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.281754554539044</v>
+        <v>7.281754554539043</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -413,10 +428,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.376448256563217</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
+        <v>2.37644825655955</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +439,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.532159353597997</v>
-      </c>
-      <c r="C4">
-        <v>17</v>
+        <v>1.532152374909694</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.442800051158975</v>
+        <v>1.442819830126445</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +461,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.049957095111553</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
+        <v>1.049950116423251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +472,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.012870555774722</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
+        <v>1.01286357708642</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +483,10 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>-2.376295595468001</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
+        <v>-2.376295595471662</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
